--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1237561.941556597</v>
+        <v>-1240118.257383847</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>182.1351610849574</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>47.22593971365094</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -826,7 +826,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.667814934065589</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>55.57106728740823</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>83.9176348438524</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>44.96817612782658</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,7 +1057,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>40.5827317322825</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>41.85932310111525</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>70.01505925776725</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>201.6622187863195</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>200.0665826352282</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507425</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>42.53134576113764</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>34.00490843294555</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520961</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046966</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>41.02686156550228</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>192.8170508184371</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545302</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,10 +3430,10 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,10 +3958,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1405.526882613611</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1405.526882613611</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1047.261184006861</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>661.4729314086167</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>250.4870266190091</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>250.4870266190091</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4343,7 +4343,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W2" t="n">
-        <v>2377.041072043026</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.041072043026</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y2" t="n">
-        <v>1986.901740067214</v>
+        <v>1792.126722677733</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>936.5735814686088</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064585</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080142</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.2435019851885</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>374.3073190572816</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>224.1906796449458</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>76.27758606255271</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>76.27758606255271</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>76.27758606255271</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>76.27758606255271</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4489,49 +4489,49 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>799.6142115756895</v>
+        <v>799.6142115756892</v>
       </c>
       <c r="N4" t="n">
         <v>1107.914056430631</v>
       </c>
       <c r="O4" t="n">
-        <v>1407.243655351045</v>
+        <v>1407.243655351044</v>
       </c>
       <c r="P4" t="n">
         <v>1639.851155784704</v>
       </c>
       <c r="Q4" t="n">
-        <v>1717.461451937219</v>
+        <v>1717.461451937218</v>
       </c>
       <c r="R4" t="n">
-        <v>1717.461451937219</v>
+        <v>1717.461451937218</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.461451937219</v>
+        <v>1717.461451937218</v>
       </c>
       <c r="T4" t="n">
-        <v>1717.461451937219</v>
+        <v>1717.461451937218</v>
       </c>
       <c r="U4" t="n">
-        <v>1428.358585062863</v>
+        <v>1428.358585062862</v>
       </c>
       <c r="V4" t="n">
-        <v>1173.674096856976</v>
+        <v>1428.358585062862</v>
       </c>
       <c r="W4" t="n">
-        <v>1173.674096856976</v>
+        <v>1138.941415025902</v>
       </c>
       <c r="X4" t="n">
-        <v>945.6845459589583</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y4" t="n">
-        <v>724.8919668154282</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1175.300932605789</v>
+        <v>1363.124011696102</v>
       </c>
       <c r="C5" t="n">
-        <v>806.3384156653776</v>
+        <v>1363.124011696102</v>
       </c>
       <c r="D5" t="n">
-        <v>806.3384156653776</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>420.5501630671334</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
         <v>66.51211643218342</v>
@@ -4565,7 +4565,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4574,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645723</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.900772669911</v>
+        <v>1749.723851760224</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>987.6786382062463</v>
+        <v>814.7868627196275</v>
       </c>
       <c r="C7" t="n">
-        <v>818.7424552783394</v>
+        <v>645.8506797917206</v>
       </c>
       <c r="D7" t="n">
-        <v>668.6258158660037</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E7" t="n">
-        <v>520.7127222836106</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>373.8227747857002</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>206.1199381604191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W7" t="n">
-        <v>1169.327103036486</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="X7" t="n">
-        <v>1169.327103036486</v>
+        <v>996.4353275498672</v>
       </c>
       <c r="Y7" t="n">
-        <v>1169.327103036486</v>
+        <v>996.4353275498672</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.138951213862</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1661.138951213862</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1302.873252607111</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4802,13 +4802,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189673</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213862</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>460.8443805240842</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>460.8443805240842</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.376633638719</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.376633638719</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1380.692145432832</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1091.274975395871</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>863.285424497854</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>642.4928453543239</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,19 +5036,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5115,22 +5115,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,10 +5273,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637404</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5504,25 +5504,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
         <v>402.7245934908939</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5978,13 +5978,13 @@
         <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6169,7 +6169,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
         <v>2254.869721166297</v>
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6406,19 +6406,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
         <v>1202.091371290588</v>
@@ -6458,7 +6458,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319329</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150029</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,10 +6853,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6923,25 +6923,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,10 +7126,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580118</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954144</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380722</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311317</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O40" t="n">
         <v>2179.340199382518</v>
@@ -7351,28 +7351,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345477</v>
@@ -7564,7 +7564,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,25 +7801,25 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380723</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7828,13 +7828,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -7843,13 +7843,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>138.374755378883</v>
+        <v>138.3747553788829</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>112.4726033023631</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>302.015029003762</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -22723,7 +22723,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>86.6846054757725</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>170.1385881016289</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>40.32043864788533</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922704</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>138.4949402405069</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>252.5180899036455</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.54986409393119</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.9994244361423</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>32.89260457060001</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1244317.331757531</v>
+        <v>1244317.33175753</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1244317.331757531</v>
+        <v>1244317.33175753</v>
       </c>
     </row>
     <row r="9">
@@ -26314,10 +26314,10 @@
         <v>152326.9268048896</v>
       </c>
       <c r="C2" t="n">
+        <v>184734.3982194639</v>
+      </c>
+      <c r="D2" t="n">
         <v>184734.3982194638</v>
-      </c>
-      <c r="D2" t="n">
-        <v>184734.3982194639</v>
       </c>
       <c r="E2" t="n">
         <v>181607.9849302513</v>
@@ -26329,19 +26329,19 @@
         <v>181607.9849302513</v>
       </c>
       <c r="H2" t="n">
-        <v>181607.9849302515</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="I2" t="n">
+        <v>181607.9849302513</v>
+      </c>
+      <c r="J2" t="n">
         <v>181607.9849302514</v>
-      </c>
-      <c r="J2" t="n">
-        <v>181607.9849302513</v>
       </c>
       <c r="K2" t="n">
         <v>181607.9849302513</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="M2" t="n">
         <v>184734.3982194636</v>
@@ -26350,7 +26350,7 @@
         <v>184734.3982194636</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194636</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11234.60594742181</v>
+        <v>11234.6059474218</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26433,7 +26433,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685504</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
@@ -26442,22 +26442,22 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="L4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994858</v>
       </c>
       <c r="M4" t="n">
         <v>22207.61133994852</v>
       </c>
       <c r="N4" t="n">
+        <v>22207.61133994854</v>
+      </c>
+      <c r="O4" t="n">
+        <v>22207.61133994853</v>
+      </c>
+      <c r="P4" t="n">
         <v>22207.61133994852</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22207.61133994851</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22207.61133994853</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1295586.365431518</v>
+        <v>-1295946.448447236</v>
       </c>
       <c r="C6" t="n">
-        <v>-16603.32919013563</v>
+        <v>-16603.3291901357</v>
       </c>
       <c r="D6" t="n">
-        <v>-16603.3291901356</v>
+        <v>-16603.32919013588</v>
       </c>
       <c r="E6" t="n">
-        <v>-259143.7587778662</v>
+        <v>-259178.4967033018</v>
       </c>
       <c r="F6" t="n">
-        <v>66268.70302948916</v>
+        <v>66233.96510405347</v>
       </c>
       <c r="G6" t="n">
-        <v>66268.70302948919</v>
+        <v>66233.96510405341</v>
       </c>
       <c r="H6" t="n">
-        <v>66268.7030294893</v>
+        <v>66233.96510405367</v>
       </c>
       <c r="I6" t="n">
-        <v>66268.70302948922</v>
+        <v>66233.96510405347</v>
       </c>
       <c r="J6" t="n">
-        <v>-151262.4993677884</v>
+        <v>-151297.237293224</v>
       </c>
       <c r="K6" t="n">
-        <v>66268.70302948919</v>
+        <v>66233.96510405344</v>
       </c>
       <c r="L6" t="n">
-        <v>39934.95303196801</v>
+        <v>39934.95303196785</v>
       </c>
       <c r="M6" t="n">
-        <v>-25692.35690991211</v>
+        <v>-25692.35690991217</v>
       </c>
       <c r="N6" t="n">
-        <v>59362.67102559973</v>
+        <v>59362.67102559967</v>
       </c>
       <c r="O6" t="n">
-        <v>59362.6710255997</v>
+        <v>59362.67102559976</v>
       </c>
       <c r="P6" t="n">
         <v>59362.6710255997</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203975</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>270.7654067768306</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>361.9078696138848</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>108.0327412859299</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>102.8956918132055</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>311.9153108144945</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>49.33295317258248</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>19.482366640941</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32470,7 +32470,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>461.1007071927452</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,31 +33257,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,10 +34220,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>311.4139847019613</v>
+        <v>311.4139847019612</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,16 +35492,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066242</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>318.5044627483008</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,16 +37704,16 @@
         <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,10 +37868,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
